--- a/DOKUMEN  PENDUKUNG/DATA DATA YANG HARUS DIMASUKAN/DATA LAPANGAN/yang sedang DILAKSANAKAN 2015_proses.xlsx
+++ b/DOKUMEN  PENDUKUNG/DATA DATA YANG HARUS DIMASUKAN/DATA LAPANGAN/yang sedang DILAKSANAKAN 2015_proses.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sipepeng\DOKUMEN  PENDUKUNG\DATA DATA YANG HARUS DIMASUKAN\DATA LAPANGAN\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" tabRatio="653" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" tabRatio="653" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="JALAN 2015" sheetId="1" r:id="rId1"/>
@@ -13,8 +18,6 @@
     <sheet name="AIR BERSIH SUMUR DANGKAL" sheetId="9" r:id="rId4"/>
     <sheet name="SEPTICTANKKOMUNAL 2015" sheetId="7" r:id="rId5"/>
     <sheet name="LAIN LAIN" sheetId="10" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId7"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'AIR BERSIH SUMUR DANGKAL'!$A$1:$M$24</definedName>
@@ -331,11 +334,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -932,6 +935,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -979,7 +985,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1011,9 +1017,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1045,6 +1052,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1220,14 +1228,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" customWidth="1"/>
@@ -1249,7 +1257,7 @@
     <col min="18" max="18" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21">
+    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="70" t="s">
         <v>34</v>
       </c>
@@ -1269,7 +1277,7 @@
       <c r="O1" s="70"/>
       <c r="P1" s="70"/>
     </row>
-    <row r="2" spans="1:16" ht="21">
+    <row r="2" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="70" t="s">
         <v>0</v>
       </c>
@@ -1289,7 +1297,7 @@
       <c r="O2" s="70"/>
       <c r="P2" s="70"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1307,7 +1315,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1">
+    <row r="4" spans="1:16" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
@@ -1351,7 +1359,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="4" customFormat="1" ht="27.75" customHeight="1" thickTop="1">
+    <row r="5" spans="1:16" s="4" customFormat="1" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -1393,7 +1401,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="4" customFormat="1" ht="24.75" customHeight="1">
+    <row r="6" spans="1:16" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -1435,7 +1443,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="4" customFormat="1" ht="30" customHeight="1">
+    <row r="7" spans="1:16" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -1477,7 +1485,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="4" customFormat="1" ht="28.5" customHeight="1">
+    <row r="8" spans="1:16" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>4</v>
       </c>
@@ -1519,7 +1527,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="4" customFormat="1" ht="32.25" customHeight="1">
+    <row r="9" spans="1:16" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>5</v>
       </c>
@@ -1561,13 +1569,13 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="33.75" customHeight="1"/>
-    <row r="13" spans="1:16" ht="18.75">
+    <row r="12" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="L13" s="69"/>
       <c r="M13" s="69"/>
       <c r="N13" s="69"/>
     </row>
-    <row r="14" spans="1:16" ht="18.75">
+    <row r="14" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D14" s="37"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -1580,7 +1588,7 @@
       <c r="M14" s="9"/>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:16" ht="18.75">
+    <row r="15" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D15" s="38"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -1593,7 +1601,7 @@
       <c r="M15" s="71"/>
       <c r="N15" s="71"/>
     </row>
-    <row r="16" spans="1:16" ht="18.75">
+    <row r="16" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D16" s="38"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -1606,7 +1614,7 @@
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="4:14" ht="18.75">
+    <row r="17" spans="4:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D17" s="38"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -1619,7 +1627,7 @@
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
     </row>
-    <row r="18" spans="4:14" ht="18.75">
+    <row r="18" spans="4:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D18" s="38"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -1632,7 +1640,7 @@
       <c r="M18" s="9"/>
       <c r="N18" s="8"/>
     </row>
-    <row r="19" spans="4:14" ht="18.75">
+    <row r="19" spans="4:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D19" s="38"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -1645,7 +1653,7 @@
       <c r="M19" s="9"/>
       <c r="N19" s="8"/>
     </row>
-    <row r="20" spans="4:14" ht="18.75">
+    <row r="20" spans="4:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D20" s="39"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -1658,7 +1666,7 @@
       <c r="M20" s="11"/>
       <c r="N20" s="8"/>
     </row>
-    <row r="21" spans="4:14" ht="18.75">
+    <row r="21" spans="4:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D21" s="40"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -1688,14 +1696,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" customWidth="1"/>
@@ -1716,7 +1724,7 @@
     <col min="18" max="18" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21">
+    <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="70" t="s">
         <v>35</v>
       </c>
@@ -1737,7 +1745,7 @@
       <c r="P1" s="70"/>
       <c r="Q1" s="70"/>
     </row>
-    <row r="2" spans="1:17" ht="21">
+    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="70" t="s">
         <v>0</v>
       </c>
@@ -1758,7 +1766,7 @@
       <c r="P2" s="70"/>
       <c r="Q2" s="70"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1777,7 +1785,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" s="4" customFormat="1" ht="54.75" customHeight="1" thickBot="1">
+    <row r="4" spans="1:17" s="4" customFormat="1" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
@@ -1824,7 +1832,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="4" customFormat="1" ht="44.25" customHeight="1" thickTop="1">
+    <row r="5" spans="1:17" s="4" customFormat="1" ht="44.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -1869,7 +1877,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="4" customFormat="1" ht="41.25" customHeight="1">
+    <row r="6" spans="1:17" s="4" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -1912,7 +1920,7 @@
       </c>
       <c r="O6" s="30"/>
     </row>
-    <row r="7" spans="1:17" s="4" customFormat="1" ht="41.25" customHeight="1">
+    <row r="7" spans="1:17" s="4" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -1957,7 +1965,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="4" customFormat="1" ht="41.25" customHeight="1">
+    <row r="8" spans="1:17" s="4" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>4</v>
       </c>
@@ -2002,7 +2010,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="4" customFormat="1" ht="41.25" customHeight="1">
+    <row r="9" spans="1:17" s="4" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>5</v>
       </c>
@@ -2047,7 +2055,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="4" customFormat="1" ht="41.25" customHeight="1">
+    <row r="10" spans="1:17" s="4" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>6</v>
       </c>
@@ -2092,7 +2100,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="4" customFormat="1" ht="41.25" customHeight="1">
+    <row r="11" spans="1:17" s="4" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -2109,7 +2117,7 @@
       <c r="N11" s="29"/>
       <c r="O11" s="30"/>
     </row>
-    <row r="12" spans="1:17" ht="43.5" customHeight="1"/>
+    <row r="12" spans="1:17" ht="43.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:Q1"/>
@@ -2125,14 +2133,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" customWidth="1"/>
@@ -2150,7 +2158,7 @@
     <col min="14" max="14" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="72" t="s">
         <v>88</v>
       </c>
@@ -2167,7 +2175,7 @@
       <c r="L1" s="72"/>
       <c r="M1" s="72"/>
     </row>
-    <row r="2" spans="1:13" ht="21">
+    <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="72" t="s">
         <v>0</v>
       </c>
@@ -2184,7 +2192,7 @@
       <c r="L2" s="72"/>
       <c r="M2" s="72"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1">
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -2199,7 +2207,7 @@
       <c r="L3" s="22"/>
       <c r="M3" s="22"/>
     </row>
-    <row r="4" spans="1:13" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1">
+    <row r="4" spans="1:13" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
@@ -2240,7 +2248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="4" customFormat="1" ht="46.5" customHeight="1" thickTop="1">
+    <row r="5" spans="1:13" s="4" customFormat="1" ht="46.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" s="41">
         <v>7</v>
@@ -2289,14 +2297,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" customWidth="1"/>
@@ -2314,7 +2322,7 @@
     <col min="14" max="14" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="72" t="s">
         <v>97</v>
       </c>
@@ -2331,7 +2339,7 @@
       <c r="L1" s="72"/>
       <c r="M1" s="72"/>
     </row>
-    <row r="2" spans="1:13" ht="21">
+    <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="72" t="s">
         <v>0</v>
       </c>
@@ -2348,7 +2356,7 @@
       <c r="L2" s="72"/>
       <c r="M2" s="72"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1">
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -2363,7 +2371,7 @@
       <c r="L3" s="22"/>
       <c r="M3" s="22"/>
     </row>
-    <row r="4" spans="1:13" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1">
+    <row r="4" spans="1:13" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
@@ -2404,7 +2412,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="51" customFormat="1" ht="48" customHeight="1" thickTop="1">
+    <row r="5" spans="1:13" s="51" customFormat="1" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="55">
         <v>1</v>
       </c>
@@ -2445,7 +2453,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="51" customFormat="1" ht="48" customHeight="1">
+    <row r="6" spans="1:13" s="51" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="62">
         <v>2</v>
       </c>
@@ -2486,7 +2494,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="76.5" customHeight="1">
+    <row r="7" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -2515,14 +2523,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" customWidth="1"/>
@@ -2540,7 +2548,7 @@
     <col min="14" max="14" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="72" t="s">
         <v>36</v>
       </c>
@@ -2557,7 +2565,7 @@
       <c r="L1" s="72"/>
       <c r="M1" s="72"/>
     </row>
-    <row r="2" spans="1:13" ht="21">
+    <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="72" t="s">
         <v>0</v>
       </c>
@@ -2574,7 +2582,7 @@
       <c r="L2" s="72"/>
       <c r="M2" s="72"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1">
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -2589,7 +2597,7 @@
       <c r="L3" s="22"/>
       <c r="M3" s="22"/>
     </row>
-    <row r="4" spans="1:13" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1">
+    <row r="4" spans="1:13" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
@@ -2630,7 +2638,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="51" customFormat="1" ht="48" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:13" s="51" customFormat="1" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46"/>
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
@@ -2645,7 +2653,7 @@
       <c r="L5" s="49"/>
       <c r="M5" s="50"/>
     </row>
-    <row r="6" spans="1:13" s="4" customFormat="1" ht="76.5" customHeight="1" thickTop="1">
+    <row r="6" spans="1:13" s="4" customFormat="1" ht="76.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
@@ -2672,14 +2680,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" customWidth="1"/>
@@ -2696,7 +2704,7 @@
     <col min="13" max="13" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="72" t="s">
         <v>37</v>
       </c>
@@ -2712,7 +2720,7 @@
       <c r="K1" s="72"/>
       <c r="L1" s="72"/>
     </row>
-    <row r="2" spans="1:12" ht="21">
+    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="72" t="s">
         <v>0</v>
       </c>
@@ -2728,7 +2736,7 @@
       <c r="K2" s="72"/>
       <c r="L2" s="72"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -2742,7 +2750,7 @@
       <c r="K3" s="22"/>
       <c r="L3" s="22"/>
     </row>
-    <row r="4" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1">
+    <row r="4" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
@@ -2780,7 +2788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="51" customFormat="1" ht="48" customHeight="1" thickTop="1">
+    <row r="5" spans="1:12" s="51" customFormat="1" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="55">
         <v>1</v>
       </c>
@@ -2796,7 +2804,7 @@
       <c r="K5" s="57"/>
       <c r="L5" s="58"/>
     </row>
-    <row r="6" spans="1:12" s="51" customFormat="1" ht="48" customHeight="1">
+    <row r="6" spans="1:12" s="51" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="62">
         <v>2</v>
       </c>
@@ -2812,7 +2820,7 @@
       <c r="K6" s="65"/>
       <c r="L6" s="66"/>
     </row>
-    <row r="7" spans="1:12" ht="76.5" customHeight="1">
+    <row r="7" spans="1:12" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -2837,28 +2845,4 @@
   <pageMargins left="0.25" right="0" top="0.5" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="63" orientation="landscape" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>